--- a/data/trans_dic/CONS_DOL-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>65,02%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>47,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>65,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>49,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>49,79%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>50,46%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,87; 35,41</t>
+          <t>13,42; 20,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 41,88</t>
+          <t>28,83; 40,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,69; 37,98</t>
+          <t>24,81; 32,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,97; 15,85</t>
+          <t>21,75; 42,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,53; 53,11</t>
+          <t>25,2; 32,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,23; 72,06</t>
+          <t>53,69; 61,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,07; 62,69</t>
+          <t>42,7; 51,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 25,0</t>
+          <t>57,67; 73,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,08; 43,8</t>
+          <t>21,21; 26,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,92; 57,01</t>
+          <t>45,86; 52,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,38; 52,13</t>
+          <t>36,12; 42,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 20,35</t>
+          <t>43,88; 57,37</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>43,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>40,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,13</t>
+          <t>10,26; 13,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,94; 31,78</t>
+          <t>10,43; 23,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,98; 24,45</t>
+          <t>19,49; 23,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,98</t>
+          <t>25,44; 31,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,16; 35,05</t>
+          <t>17,73; 21,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,75; 44,02</t>
+          <t>32,0; 63,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,76; 48,51</t>
+          <t>27,87; 32,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 19,46</t>
+          <t>36,48; 43,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,06; 29,31</t>
+          <t>14,29; 16,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,65; 36,76</t>
+          <t>23,31; 47,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,92; 37,48</t>
+          <t>24,35; 27,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 15,2</t>
+          <t>31,79; 36,62</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>25,75%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>19,63%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,16%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>33,37%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>27,21%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>29,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,42%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>26,94%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>26,57%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>24,76%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>9,02%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 18,15</t>
+          <t>5,36; 9,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,8; 29,74</t>
+          <t>17,09; 25,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 23,34</t>
+          <t>11,24; 16,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 9,04</t>
+          <t>21,88; 29,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,35; 24,84</t>
+          <t>8,75; 12,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,62; 30,94</t>
+          <t>29,81; 37,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,62; 33,12</t>
+          <t>17,73; 24,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,86; 12,14</t>
+          <t>23,75; 31,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 20,46</t>
+          <t>7,71; 10,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,77; 29,34</t>
+          <t>24,12; 29,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,51; 27,3</t>
+          <t>15,65; 19,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 10,29</t>
+          <t>24,03; 29,47</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>33,95%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 24,01</t>
+          <t>10,27; 12,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,26; 30,41</t>
+          <t>13,79; 24,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,88; 25,33</t>
+          <t>19,06; 22,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 11,51</t>
+          <t>25,44; 30,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,25</t>
+          <t>17,4; 19,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,66; 41,74</t>
+          <t>37,26; 60,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,74; 47,63</t>
+          <t>28,86; 32,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 18,24</t>
+          <t>36,68; 41,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,94; 29,34</t>
+          <t>14,31; 15,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,83; 35,78</t>
+          <t>27,59; 44,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,37; 36,34</t>
+          <t>24,65; 27,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,28; 14,72</t>
+          <t>32,05; 35,65</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el dolor</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14594</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>79148</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61706</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31662</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36620</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>227730</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>128874</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>78161</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>51214</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>306878</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>190580</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>109823</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11822; 18254</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>65811; 92779</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>53534; 70888</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21432; 41891</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32198; 41337</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>212143; 242538</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>116854; 140448</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>68668; 87008</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45769; 57346</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>285906; 330036</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>176807; 206228</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>95507; 124854</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>52714</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>261152</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>186344</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100985</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>83421</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>604527</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>262486</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>141869</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>136135</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>865679</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>448831</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>242853</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46530; 59285</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>147062; 332495</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>168093; 203952</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>90782; 114138</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76566; 90963</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>443459; 882885</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>242041; 282304</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>129178; 155386</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>126464; 145658</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>651448; 1322379</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>421487; 478702</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>225990; 260375</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10874</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>95357</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>52469</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>57602</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20531</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>147968</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>86707</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>76930</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31405</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>243324</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>139176</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>134532</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8125; 13969</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>78576; 116421</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42555; 64160</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48946; 66501</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17005; 24397</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>132171; 167366</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>73928; 101589</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67148; 87897</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26657; 35706</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>217860; 270474</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>124456; 158694</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>121673; 149217</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1734</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>78181</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>435657</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>300520</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>190248</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>140573</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>980224</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>478067</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>296960</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>218754</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1415881</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>778587</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>487208</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>71171; 86101</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>289259; 511873</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>277703; 324647</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>172750; 206639</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>131193; 149709</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>828847; 1342260</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>449997; 505236</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>277255; 316758</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>207094; 231106</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1192458; 1915069</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>743424; 821023</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>459864; 511561</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_DOL-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor</t>
+          <t>Consumo de medicamentos para el dolor (tasa de respuesta: 99,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor</t>
+          <t>Consumo de medicamentos para el dolor (tasa de respuesta: 99,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_DOL-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Estudios-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,42; 20,73</t>
+          <t>14,89; 22,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,83; 40,64</t>
+          <t>29,36; 40,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,75; 42,5</t>
+          <t>23,16; 44,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,2; 32,36</t>
+          <t>25,85; 32,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,69; 61,39</t>
+          <t>53,24; 61,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,67; 73,07</t>
+          <t>56,63; 73,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,21; 26,57</t>
+          <t>22,46; 27,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,86; 52,94</t>
+          <t>45,86; 53,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,88; 57,37</t>
+          <t>43,36; 57,11</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,07</t>
+          <t>9,82; 12,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 23,59</t>
+          <t>11,09; 23,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 31,98</t>
+          <t>24,9; 31,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 21,07</t>
+          <t>17,29; 20,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,0; 63,71</t>
+          <t>32,42; 67,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,48; 43,89</t>
+          <t>36,3; 43,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 16,45</t>
+          <t>13,87; 15,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,31; 47,31</t>
+          <t>23,37; 48,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,79; 36,62</t>
+          <t>31,61; 36,66</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,21</t>
+          <t>5,16; 8,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 25,32</t>
+          <t>16,51; 24,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,88; 29,73</t>
+          <t>21,56; 29,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,56</t>
+          <t>8,85; 12,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,81; 37,75</t>
+          <t>29,57; 37,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,75; 31,09</t>
+          <t>23,83; 31,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 10,32</t>
+          <t>7,68; 10,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,12; 29,95</t>
+          <t>24,3; 29,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,03; 29,47</t>
+          <t>24,16; 29,41</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 12,42</t>
+          <t>9,81; 11,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 24,4</t>
+          <t>13,58; 24,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,44; 30,43</t>
+          <t>25,36; 30,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 19,86</t>
+          <t>16,95; 19,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,26; 60,35</t>
+          <t>37,51; 59,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,68; 41,91</t>
+          <t>36,37; 41,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,31; 15,97</t>
+          <t>13,86; 15,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,59; 44,31</t>
+          <t>27,59; 43,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,05; 35,65</t>
+          <t>32,15; 35,82</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14594</t>
+          <t>15270</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36620</t>
+          <t>35397</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51214</t>
+          <t>50666</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11822; 18254</t>
+          <t>12287; 18244</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65811; 92779</t>
+          <t>67020; 93284</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21432; 41891</t>
+          <t>22825; 43861</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32198; 41337</t>
+          <t>31401; 39588</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>212143; 242538</t>
+          <t>210344; 242060</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68668; 87008</t>
+          <t>67436; 87175</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45769; 57346</t>
+          <t>45809; 56669</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>285906; 330036</t>
+          <t>285890; 330446</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>95507; 124854</t>
+          <t>94374; 124293</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52714</t>
+          <t>50946</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83421</t>
+          <t>83950</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>136135</t>
+          <t>134896</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46530; 59285</t>
+          <t>45342; 57311</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>147062; 332495</t>
+          <t>156370; 331234</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90782; 114138</t>
+          <t>88876; 112946</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76566; 90963</t>
+          <t>76830; 91062</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>443459; 882885</t>
+          <t>449277; 930044</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>129178; 155386</t>
+          <t>128527; 154250</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>126464; 145658</t>
+          <t>125704; 144538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>651448; 1322379</t>
+          <t>653219; 1359029</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>225990; 260375</t>
+          <t>224757; 260604</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10874</t>
+          <t>11719</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20531</t>
+          <t>24346</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31405</t>
+          <t>36065</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8125; 13969</t>
+          <t>9061; 15047</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>78576; 116421</t>
+          <t>75934; 114650</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48946; 66501</t>
+          <t>48221; 66794</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17005; 24397</t>
+          <t>20172; 28843</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>132171; 167366</t>
+          <t>131103; 165105</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>67148; 87897</t>
+          <t>67374; 87784</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>26657; 35706</t>
+          <t>30986; 41269</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>217860; 270474</t>
+          <t>219451; 270124</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>121673; 149217</t>
+          <t>122356; 148909</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>78181</t>
+          <t>77934</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>140573</t>
+          <t>143694</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>218754</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71171; 86101</t>
+          <t>70588; 85995</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>289259; 511873</t>
+          <t>284789; 508689</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>172750; 206639</t>
+          <t>172246; 208189</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>131193; 149709</t>
+          <t>134542; 153807</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>828847; 1342260</t>
+          <t>834324; 1313966</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>277255; 316758</t>
+          <t>274894; 316240</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>207094; 231106</t>
+          <t>209840; 234669</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1192458; 1915069</t>
+          <t>1192278; 1862194</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>459864; 511561</t>
+          <t>461301; 514071</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/CONS_DOL-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Estudios-trans_dic.xlsx
@@ -569,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -657,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>34,47%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32,13%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28,59%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>18,5%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>34,67%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>28,59%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>32,13%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>56,78%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>65,64%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47,09%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>29,14%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>57,64%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>47,09%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>65,64%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>50,46%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38,94%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>24,84%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>49,23%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>38,94%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>50,46%</t>
         </is>
       </c>
     </row>
@@ -725,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>29,47; 40,27</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23,16; 44,5</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24,81; 32,85</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>14,89; 22,1</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>29,36; 40,86</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>24,81; 32,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>23,16; 44,5</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>52,23; 60,28</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>56,63; 73,21</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42,7; 51,32</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>25,85; 32,6</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>53,24; 61,27</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>42,7; 51,32</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>56,63; 73,21</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>45,22; 52,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>43,36; 57,11</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36,12; 42,13</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>22,46; 27,78</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>45,86; 53,01</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>36,12; 42,13</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>43,36; 57,11</t>
         </is>
       </c>
     </row>
@@ -797,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>22,02%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28,3%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21,6%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>11,03%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,53%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>21,6%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>28,3%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>35,29%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40,07%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30,22%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>18,89%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>43,62%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>30,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>40,07%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>28,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34,16%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>14,89%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>30,97%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>25,93%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -865,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>19,45; 24,56</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24,9; 31,65</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 23,64</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>9,82; 12,41</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>11,09; 23,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>19,49; 23,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>24,9; 31,65</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>32,96; 37,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36,3; 43,56</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27,87; 32,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>17,29; 20,49</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>32,42; 67,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>27,87; 32,5</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>36,3; 43,56</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>26,84; 30,38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31,61; 36,66</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24,35; 27,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>13,87; 15,95</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>23,37; 48,62</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>24,35; 27,65</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>31,61; 36,66</t>
         </is>
       </c>
     </row>
@@ -937,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>20,38%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6,68%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>20,74%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13,86%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>25,75%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>32,7%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27,21%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>10,68%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>33,37%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>20,8%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>27,21%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>26,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26,57%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>8,94%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>26,94%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>17,5%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>26,57%</t>
         </is>
       </c>
     </row>
@@ -1005,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>16,39; 24,6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21,56; 29,86</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 16,95</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>5,16; 8,57</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>16,51; 24,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>11,24; 16,95</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>21,56; 29,86</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>29,01; 36,53</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23,83; 31,05</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 24,37</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>8,85; 12,65</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>29,57; 37,24</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>17,73; 24,37</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>23,83; 31,05</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>23,9; 29,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24,16; 29,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,65; 19,95</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>7,68; 10,23</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>24,3; 29,91</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>15,65; 19,95</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>24,16; 29,41</t>
         </is>
       </c>
     </row>
@@ -1077,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28,01%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20,63%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>10,83%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>20,77%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>20,63%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>28,01%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>38,93%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>39,29%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30,66%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>18,1%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>44,07%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>30,66%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>39,29%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>31,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33,95%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>14,64%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>32,76%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>25,81%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>33,95%</t>
         </is>
       </c>
     </row>
@@ -1145,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>21,2; 25,24</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25,36; 30,66</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 22,28</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>9,81; 11,95</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>13,58; 24,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>19,06; 22,28</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>25,36; 30,66</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>37,08; 40,85</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36,37; 41,84</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28,86; 32,4</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>16,95; 19,38</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>37,51; 59,07</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>28,86; 32,4</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>36,37; 41,84</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>29,96; 32,68</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32,15; 35,82</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24,65; 27,22</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>13,86; 15,5</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>27,59; 43,09</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>24,65; 27,22</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>32,15; 35,82</t>
         </is>
       </c>
     </row>
@@ -1296,62 +1296,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1384,62 +1384,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>87</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>212</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>409</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>299</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>515</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>487</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>245</t>
         </is>
       </c>
     </row>
@@ -1452,62 +1452,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>88044</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31662</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61706</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>15270</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>79148</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>61706</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>31662</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>245636</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>78161</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>128874</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>35397</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>227730</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>128874</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>78161</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>333681</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>109823</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>190580</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>50666</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>306878</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>190580</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>109823</t>
         </is>
       </c>
     </row>
@@ -1520,62 +1520,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>75265; 102843</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22825; 43861</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>53534; 70888</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>12287; 18244</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>67020; 93284</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>53534; 70888</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>22825; 43861</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>225964; 260755</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>67436; 87175</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>116854; 140448</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>31401; 39588</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>210344; 242060</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>116854; 140448</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>67436; 87175</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>311093; 358062</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>94374; 124293</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>176807; 206228</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>45809; 56669</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>285890; 330446</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>176807; 206228</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>94374; 124293</t>
         </is>
       </c>
     </row>
@@ -1592,62 +1592,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>301</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>484</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>633</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>785</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>891</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>549</t>
         </is>
       </c>
     </row>
@@ -1660,62 +1660,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>283558</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>100985</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>186344</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>50946</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>261152</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>186344</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>100985</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>448434</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>141869</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>262486</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>83950</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>604527</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>262486</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>141869</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>731992</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>242853</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>448831</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>134896</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>865679</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>448831</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>242853</t>
         </is>
       </c>
     </row>
@@ -1728,62 +1728,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>250414; 316192</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>88876; 112946</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>168093; 203952</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>45342; 57311</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>156370; 331234</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>168093; 203952</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>88876; 112946</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>418795; 479686</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>128527; 154250</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>242041; 282304</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>76830; 91062</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>449277; 930044</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>242041; 282304</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>128527; 154250</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>686714; 777261</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>224757; 260604</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>421487; 478702</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>125704; 144538</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>653219; 1359029</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>421487; 478702</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>224757; 260604</t>
         </is>
       </c>
     </row>
@@ -1800,62 +1800,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>132</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>191</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>366</t>
         </is>
       </c>
     </row>
@@ -1868,62 +1868,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>103899</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57602</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>52469</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>11719</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>95357</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>52469</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>57602</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>162177</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>76930</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>86707</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>24346</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>147968</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>86707</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>76930</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>266076</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>134532</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>139176</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>36065</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>243324</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>139176</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>134532</t>
         </is>
       </c>
     </row>
@@ -1936,62 +1936,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>83583; 125433</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48221; 66794</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42555; 64160</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>9061; 15047</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>75934; 114650</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>42555; 64160</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>48221; 66794</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>143852; 181151</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67374; 87784</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>73928; 101589</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>20172; 28843</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>131103; 165105</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>73928; 101589</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>67374; 87784</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>240379; 295474</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>122356; 148909</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>124456; 158694</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>30986; 41269</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>219451; 270124</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>124456; 158694</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>122356; 148909</t>
         </is>
       </c>
     </row>
@@ -2008,62 +2008,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>447</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>648</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>441</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>828</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1268</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>978</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>719</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>1734</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>1275</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1734</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>1626</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1160</t>
         </is>
       </c>
     </row>
@@ -2076,62 +2076,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>475502</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>190248</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>300520</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>77934</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>435657</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>300520</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>190248</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>856247</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>296960</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>478067</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>143694</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>980224</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>478067</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>296960</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>1331749</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>487208</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>778587</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>221628</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1415881</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>778587</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>487208</t>
         </is>
       </c>
     </row>
@@ -2144,62 +2144,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>435317; 518135</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>172246; 208189</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>277703; 324647</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>70588; 85995</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>284789; 508689</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>277703; 324647</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>172246; 208189</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>815406; 898376</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>274894; 316240</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>449997; 505236</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>134542; 153807</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>834324; 1313966</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>449997; 505236</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>274894; 316240</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>1274095; 1389831</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>461301; 514071</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>743424; 821023</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>209840; 234669</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1192278; 1862194</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>743424; 821023</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>461301; 514071</t>
         </is>
       </c>
     </row>
